--- a/final_data_pipeline/output/325311longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325311longform_elec_options.xlsx
@@ -681,7 +681,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -696,10 +696,10 @@
         <v>87103.90708026808</v>
       </c>
       <c r="R2">
-        <v>1.025288461538461</v>
+        <v>0.988840803709428</v>
       </c>
       <c r="S2">
-        <v>1.0563</v>
+        <v>1.017303370786517</v>
       </c>
       <c r="T2">
         <v>10.88798838503351</v>
@@ -734,7 +734,7 @@
         <v>71</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -781,7 +781,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -796,10 +796,10 @@
         <v>170938.2782512585</v>
       </c>
       <c r="R4">
-        <v>1.025288461538461</v>
+        <v>1.039134630545334</v>
       </c>
       <c r="S4">
-        <v>1.0563</v>
+        <v>1.071143586266607</v>
       </c>
       <c r="T4">
         <v>21.36728478140731</v>
@@ -834,7 +834,7 @@
         <v>71</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -1081,7 +1081,7 @@
         <v>70</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1096,10 +1096,10 @@
         <v>3272184.767280684</v>
       </c>
       <c r="R10">
-        <v>1.025288461538461</v>
+        <v>1.046893692841948</v>
       </c>
       <c r="S10">
-        <v>1.0563</v>
+        <v>1.079468594462633</v>
       </c>
       <c r="T10">
         <v>409.0230959100855</v>
@@ -1134,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1481,7 +1481,7 @@
         <v>70</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1496,10 +1496,10 @@
         <v>9359.220588423192</v>
       </c>
       <c r="R18">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="S18">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="T18">
         <v>1.169902573552899</v>
@@ -1534,7 +1534,7 @@
         <v>71</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1781,7 +1781,7 @@
         <v>70</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1796,10 +1796,10 @@
         <v>1656.897387630304</v>
       </c>
       <c r="R24">
-        <v>1.025288461538461</v>
+        <v>1.034898269710531</v>
       </c>
       <c r="S24">
-        <v>1.0563</v>
+        <v>1.066600353276151</v>
       </c>
       <c r="T24">
         <v>0.207112173453788</v>
@@ -1834,7 +1834,7 @@
         <v>71</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1881,7 +1881,7 @@
         <v>70</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1896,10 +1896,10 @@
         <v>1500641.110016775</v>
       </c>
       <c r="R26">
-        <v>1.025288461538461</v>
+        <v>1.0530876503132</v>
       </c>
       <c r="S26">
-        <v>1.0563</v>
+        <v>1.086117960679774</v>
       </c>
       <c r="T26">
         <v>187.5801387520968</v>
@@ -1934,7 +1934,7 @@
         <v>71</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2181,7 +2181,7 @@
         <v>71</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2228,7 +2228,7 @@
         <v>70</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2243,10 +2243,10 @@
         <v>334817.2673782418</v>
       </c>
       <c r="R33">
-        <v>1.025288461538461</v>
+        <v>0.9939102066179896</v>
       </c>
       <c r="S33">
-        <v>1.0563</v>
+        <v>1.022720671292561</v>
       </c>
       <c r="T33">
         <v>41.85215842228022</v>
@@ -2381,7 +2381,7 @@
         <v>71</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -2428,7 +2428,7 @@
         <v>70</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2443,10 +2443,10 @@
         <v>1238836.56981586</v>
       </c>
       <c r="R37">
-        <v>1.025288461538461</v>
+        <v>1.046893692841948</v>
       </c>
       <c r="S37">
-        <v>1.0563</v>
+        <v>1.079468594462633</v>
       </c>
       <c r="T37">
         <v>154.8545712269825</v>
@@ -2681,7 +2681,7 @@
         <v>71</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2728,7 +2728,7 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -2743,10 +2743,10 @@
         <v>1015125.367049271</v>
       </c>
       <c r="R43">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="S43">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="T43">
         <v>126.8906708811589</v>
@@ -2881,7 +2881,7 @@
         <v>71</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -2928,7 +2928,7 @@
         <v>70</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -2943,10 +2943,10 @@
         <v>25921.64503234384</v>
       </c>
       <c r="R47">
-        <v>1.025288461538461</v>
+        <v>1.054730517716163</v>
       </c>
       <c r="S47">
-        <v>1.0563</v>
+        <v>1.087882159227449</v>
       </c>
       <c r="T47">
         <v>3.24020562904298</v>
@@ -3081,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L50">
         <v>8000</v>
@@ -3096,10 +3096,10 @@
         <v>1014281.485513026</v>
       </c>
       <c r="R50">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="S50">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="T50">
         <v>126.7851856891283</v>
@@ -3134,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3481,7 +3481,7 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L58">
         <v>8000</v>
@@ -3528,7 +3528,7 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L59">
         <v>8000</v>
@@ -3543,10 +3543,10 @@
         <v>1057448.281540857</v>
       </c>
       <c r="R59">
-        <v>1.025288461538461</v>
+        <v>1.043253580005337</v>
       </c>
       <c r="S59">
-        <v>1.0563</v>
+        <v>1.075562343793391</v>
       </c>
       <c r="T59">
         <v>132.1810351926071</v>
